--- a/NotasGeologiaPublicationList.xlsx
+++ b/NotasGeologiaPublicationList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\Notas-Geologicas-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEA56DE-DD28-4904-B362-21DAA492F4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FCA4CD-64E0-48D0-8A02-0C2807F31144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -11951,25 +11951,25 @@
     <t>Borrador del trabajo presentado en el Congreso Latinoamericano de Geología, 1995</t>
   </si>
   <si>
-    <t>https://mariantoc.github.io/stratigraphy.html#ButenkoJetal1981</t>
-  </si>
-  <si>
-    <t>https://mariantoc.github.io/topics.html#CasasJE2025d</t>
-  </si>
-  <si>
-    <t>https://mariantoc.github.io/stratigraphy.html#SanchezMT1976</t>
-  </si>
-  <si>
-    <t>https://mariantoc.github.io/ecology.html#CilentoA2024</t>
-  </si>
-  <si>
-    <t>https://mariantoc.github.io/excursions.html#CamposVetal1973</t>
-  </si>
-  <si>
-    <t>https://mariantoc.github.io/stratigraphy.html#CastroM1988</t>
-  </si>
-  <si>
-    <t>https://mariantoc.github.io/stratigraphy.html#MarquezPetal1995</t>
+    <t>https://mariantoc.github.io/Notas-Geologicas-2025/stratigraphy.html#ButenkoJetal1981</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/Notas-Geologicas-2025/topics.html#CasasJE2025d</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/Notas-Geologicas-2025/stratigraphy.html#SanchezMT1976</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/Notas-Geologicas-2025/ecology.html#CilentoA2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/Notas-Geologicas-2025/excursions.html#CamposVetal1973</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/Notas-Geologicas-2025/stratigraphy.html#CastroM1988</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/Notas-Geologicas-2025/stratigraphy.html#MarquezPetal1995</t>
   </si>
 </sst>
 </file>
@@ -12368,7 +12368,7 @@
   <dimension ref="A1:H1066"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1052" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1060" sqref="B1060"/>
+      <selection activeCell="A1060" sqref="A1060"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38772,7 +38772,7 @@
       </c>
       <c r="G1060" s="3" t="str">
         <f t="shared" si="32"/>
-        <v>https://mariantoc.github.io/stratigraphy.html#ButenkoJetal1981</v>
+        <v>https://mariantoc.github.io/Notas-Geologicas-2025/stratigraphy.html#ButenkoJetal1981</v>
       </c>
     </row>
     <row r="1061" spans="1:7" x14ac:dyDescent="0.3">
@@ -38797,7 +38797,7 @@
       </c>
       <c r="G1061" s="3" t="str">
         <f t="shared" si="32"/>
-        <v>https://mariantoc.github.io/topics.html#CasasJE2025d</v>
+        <v>https://mariantoc.github.io/Notas-Geologicas-2025/topics.html#CasasJE2025d</v>
       </c>
     </row>
     <row r="1062" spans="1:7" x14ac:dyDescent="0.3">
@@ -38822,7 +38822,7 @@
       </c>
       <c r="G1062" s="3" t="str">
         <f t="shared" si="32"/>
-        <v>https://mariantoc.github.io/stratigraphy.html#SanchezMT1976</v>
+        <v>https://mariantoc.github.io/Notas-Geologicas-2025/stratigraphy.html#SanchezMT1976</v>
       </c>
     </row>
     <row r="1063" spans="1:7" x14ac:dyDescent="0.3">
@@ -38847,7 +38847,7 @@
       </c>
       <c r="G1063" s="3" t="str">
         <f t="shared" si="32"/>
-        <v>https://mariantoc.github.io/ecology.html#CilentoA2024</v>
+        <v>https://mariantoc.github.io/Notas-Geologicas-2025/ecology.html#CilentoA2024</v>
       </c>
     </row>
     <row r="1064" spans="1:7" x14ac:dyDescent="0.3">
@@ -38872,7 +38872,7 @@
       </c>
       <c r="G1064" s="3" t="str">
         <f t="shared" si="32"/>
-        <v>https://mariantoc.github.io/excursions.html#CamposVetal1973</v>
+        <v>https://mariantoc.github.io/Notas-Geologicas-2025/excursions.html#CamposVetal1973</v>
       </c>
     </row>
     <row r="1065" spans="1:7" x14ac:dyDescent="0.3">
@@ -38897,7 +38897,7 @@
       </c>
       <c r="G1065" s="3" t="str">
         <f t="shared" si="32"/>
-        <v>https://mariantoc.github.io/stratigraphy.html#CastroM1988</v>
+        <v>https://mariantoc.github.io/Notas-Geologicas-2025/stratigraphy.html#CastroM1988</v>
       </c>
     </row>
     <row r="1066" spans="1:7" x14ac:dyDescent="0.3">
@@ -38922,7 +38922,7 @@
       </c>
       <c r="G1066" s="3" t="str">
         <f t="shared" si="32"/>
-        <v>https://mariantoc.github.io/stratigraphy.html#MarquezPetal1995</v>
+        <v>https://mariantoc.github.io/Notas-Geologicas-2025/stratigraphy.html#MarquezPetal1995</v>
       </c>
     </row>
   </sheetData>

--- a/NotasGeologiaPublicationList.xlsx
+++ b/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\Notas-Geologicas-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FCA4CD-64E0-48D0-8A02-0C2807F31144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA924E2-A060-4E8E-AF43-3C1E3E606425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4242" uniqueCount="3903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="3911">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -11970,6 +11970,30 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/Notas-Geologicas-2025/stratigraphy.html#MarquezPetal1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo Agua Salada, localidad de Huequito, Estado Falcón, Venezuela. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Díaz de Gamero, L.; Mederos, A.; Giffunni, G.; Castro Mora, M. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fósiles urbanos: las ciudades como canteras geológicas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesús S. Porras </t>
+  </si>
+  <si>
+    <t>MAYA. Revistas de Geociencias, Septiembre 2025</t>
+  </si>
+  <si>
+    <t>Análisis de muestras para el Código Estratigráfico de Venezuela, 1997</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/Notas-Geologicas-2025/stratigraphy.html#DiazLetal1997</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/Notas-Geologicas-2025/topics.html#PorrasJS2025a</t>
   </si>
 </sst>
 </file>
@@ -12042,7 +12066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -12050,6 +12074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12365,10 +12390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H1066"/>
+  <dimension ref="A1:H1068"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1052" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1060" sqref="A1060"/>
+      <selection activeCell="A1067" sqref="A1067"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12377,7 +12402,7 @@
     <col min="3" max="3" width="21.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.5546875" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="47.5546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="55.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -37930,7 +37955,7 @@
         <v>3775</v>
       </c>
       <c r="G1026" s="3" t="str">
-        <f t="shared" ref="G1026:G1066" si="32">HYPERLINK(F1026)</f>
+        <f t="shared" ref="G1026:G1068" si="32">HYPERLINK(F1026)</f>
         <v>https://mariantoc.github.io/stratigraphy.html#Anonimo2001</v>
       </c>
     </row>
@@ -37986,7 +38011,7 @@
     </row>
     <row r="1029" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1029">
-        <f t="shared" ref="A1029:A1066" si="33">A1028+1</f>
+        <f t="shared" ref="A1029:A1068" si="33">A1028+1</f>
         <v>1028</v>
       </c>
       <c r="B1029" t="s">
@@ -38923,6 +38948,56 @@
       <c r="G1066" s="3" t="str">
         <f t="shared" si="32"/>
         <v>https://mariantoc.github.io/Notas-Geologicas-2025/stratigraphy.html#MarquezPetal1995</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1067">
+        <f t="shared" si="33"/>
+        <v>1066</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>3903</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>3904</v>
+      </c>
+      <c r="D1067">
+        <v>1997</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>3908</v>
+      </c>
+      <c r="F1067" s="5" t="s">
+        <v>3909</v>
+      </c>
+      <c r="G1067" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/Notas-Geologicas-2025/stratigraphy.html#DiazLetal1997</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1068">
+        <f t="shared" si="33"/>
+        <v>1067</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>3905</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>3906</v>
+      </c>
+      <c r="D1068">
+        <v>2025</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>3907</v>
+      </c>
+      <c r="F1068" s="5" t="s">
+        <v>3910</v>
+      </c>
+      <c r="G1068" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/Notas-Geologicas-2025/topics.html#PorrasJS2025a</v>
       </c>
     </row>
   </sheetData>
